--- a/storage/file_excel/DataSample.xlsx
+++ b/storage/file_excel/DataSample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chontipan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chontipan\Documents\GitHub\alumni-spss\storage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -632,7 +632,7 @@
     <t>ศิลปศาสตรบัณฑิต</t>
   </si>
   <si>
-    <t>funtional_status</t>
+    <t>functional_status</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/storage/file_excel/DataSample.xlsx
+++ b/storage/file_excel/DataSample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chontipan\Documents\GitHub\alumni-spss\storage\file_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chontipan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/storage/file_excel/DataSample.xlsx
+++ b/storage/file_excel/DataSample.xlsx
@@ -629,10 +629,10 @@
     <t>รัฐศาสตรบัณฑิต</t>
   </si>
   <si>
-    <t>ศิลปศาสตรบัณฑิต</t>
-  </si>
-  <si>
     <t>functional_status</t>
+  </si>
+  <si>
+    <t>ศิลปศาสตรบัณฑิต สาขาวิชาพัฒนาสังคม</t>
   </si>
 </sst>
 </file>
@@ -1000,19 +1000,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="45.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="45.453125" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="14" max="14" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
@@ -1184,7 +1184,7 @@
         <v>59</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AY1" s="3" t="s">
         <v>60</v>
@@ -1967,7 +1967,7 @@
         <v>200</v>
       </c>
       <c r="V7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W7" t="s">
         <v>136</v>
@@ -2119,7 +2119,7 @@
         <v>200</v>
       </c>
       <c r="V8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W8" t="s">
         <v>142</v>
@@ -2411,7 +2411,7 @@
         <v>200</v>
       </c>
       <c r="V10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W10" t="s">
         <v>151</v>

--- a/storage/file_excel/DataSample.xlsx
+++ b/storage/file_excel/DataSample.xlsx
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1023,8 +1023,10 @@
     <col min="21" max="21" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="12.26953125" customWidth="1"/>
+    <col min="24" max="24" width="13" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" customWidth="1"/>
     <col min="38" max="38" width="9" customWidth="1"/>
     <col min="43" max="43" width="20.36328125" customWidth="1"/>
     <col min="44" max="44" width="20.90625" customWidth="1"/>
@@ -2301,7 +2303,7 @@
         <v>150</v>
       </c>
       <c r="AF9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="AG9">
         <v>10110</v>
@@ -2441,7 +2443,7 @@
         <v>110</v>
       </c>
       <c r="AF10" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="AG10">
         <v>30000</v>
